--- a/Phase1/Data Documentation/CRDC/2017-18 CRDC File Structure.xlsx
+++ b/Phase1/Data Documentation/CRDC/2017-18 CRDC File Structure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dansari/Documents/GitHub/Identifying-features-to-predict-high-school-assessment-proficiency/Phase1/Data Documentation/CRDC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21293C0-7E76-7D4D-9F6E-3C376B04052F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53133F6A-E98D-954F-9A1B-440BBF724DC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" tabRatio="882" firstSheet="3" activeTab="13" xr2:uid="{A9E41CEF-2DD2-457A-9CE1-7CCEB4A9DF3D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20340" tabRatio="882" firstSheet="3" activeTab="13" xr2:uid="{A9E41CEF-2DD2-457A-9CE1-7CCEB4A9DF3D}"/>
   </bookViews>
   <sheets>
     <sheet name="LEA Characteristics" sheetId="2" r:id="rId1"/>
@@ -74,6 +74,7 @@
     <definedName name="Data">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -14989,7 +14990,7 @@
   <dimension ref="A1:C124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B47" sqref="B47:B48"/>
     </sheetView>
   </sheetViews>
